--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0402_Title!$A$1:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0402_Title!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0402_Title!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0402_Title!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0402_Title!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -372,10 +372,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -394,236 +390,32 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>由3.2、3.3查詢合併後的群組識別值List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>View</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 取得預設角色可使用功能清單及其權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.2 取得職稱角色群組識別值(Rid)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.3 取得自訂角色群組識別值(Rid)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.4 查詢可使用功能清單</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Rid</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUDO)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設角色之Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>模組代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>選擇性參數，當各模組登入測試畫面時使用
-apf_menu_node.module_id = 模組代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C = Create, R = Read, U = Update, D = Delete, O = Output</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>模組代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0502_Permission
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -678,8 +470,165 @@
   <si>
     <t>Framework底層功能
 1.提供職稱角色維護API - WebAPI
-2.CMD模組設定職位維護時呼叫處理</t>
+2.CMD模組設定權限職稱主檔維護時呼叫處理</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0402_Title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫WebAPI時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 職稱角色新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5 職稱角色維護</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6 職稱角色刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自定角色
+APF0402_Title 此WebAPI呼叫時固定為2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱 = suda_work.suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行結果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗訊息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 執行成功; fasle = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1385,13 +1334,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,27 +1406,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1430,41 +1415,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1475,10 +1562,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,36 +1601,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,138 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2727,7 +2676,7 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2773,14 +2722,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3370,7 +3319,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12296775" cy="523875"/>
+          <a:ext cx="12363450" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4231,7 +4180,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4267,10 +4216,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>69</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -4282,21 +4231,21 @@
         <v>64</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4614,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4632,15 +4581,15 @@
       <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4657,248 +4606,255 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="A8" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="A10" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="A12" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="A14" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
+      <c r="A16" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="92" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="94"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A40:L40"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
@@ -4910,13 +4866,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4943,7 +4892,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -4962,13 +4911,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -5001,8 +4950,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J9"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5032,7 +4981,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="50"/>
@@ -5053,7 +5002,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5066,7 +5015,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5081,152 +5030,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5235,70 +5184,70 @@
       <c r="B16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5307,104 +5256,96 @@
       <c r="B21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="154" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5419,14 +5360,14 @@
       <c r="D28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="165" t="s">
+      <c r="E28" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5435,180 +5376,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="163"/>
+      <c r="D37" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5631,14 +5572,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5647,27 +5588,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5684,16 +5625,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5715,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5727,7 +5668,7 @@
     <col min="4" max="4" width="16.375" style="41" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="41" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="13" style="41" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="41" customWidth="1"/>
@@ -5746,7 +5687,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="39"/>
@@ -5773,7 +5714,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5791,7 +5732,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5914,7 +5855,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5927,18 +5868,18 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="A11" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -5977,482 +5918,464 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="66">
+        <v>69</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="33">
       <c r="A14" s="48">
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="48">
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="43">
+        <v>1</v>
+      </c>
       <c r="I15" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="33">
+        <v>69</v>
+      </c>
+      <c r="J15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" ht="49.5">
       <c r="A16" s="48">
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="48"/>
-      <c r="B17" s="45"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="49.5">
+      <c r="A17" s="48">
+        <v>5</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="69"/>
+      <c r="E17" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="43">
+        <v>2</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="48">
+        <v>6</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>0</v>
+      <c r="A19" s="48">
+        <v>7</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>72</v>
-      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="48">
-        <v>2</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>84</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="48"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>78</v>
-      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>83</v>
-      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="48"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="46"/>
+      <c r="A22" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="33">
+      <c r="A24" s="48">
+        <v>1</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="42" t="s">
+      <c r="F24" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="49.5">
+      <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="48">
-        <v>1</v>
-      </c>
       <c r="B25" s="45" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:10" ht="33">
+        <v>113</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>78</v>
-      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="48"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="48">
+        <v>4</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="43"/>
+      <c r="I27" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H30" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I30" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J30" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="33">
-      <c r="A30" s="48">
+    <row r="31" spans="1:10" ht="49.5">
+      <c r="A31" s="48">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="66">
-      <c r="A31" s="48">
-        <v>2</v>
-      </c>
       <c r="B31" s="45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>85</v>
-      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
-      <c r="E33" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="69" t="s">
-        <v>118</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="48"/>
@@ -6479,14 +6402,13 @@
       <c r="J35" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A28:J28"/>
+  <mergeCells count="6">
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>角色維護</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>查詢人員</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -628,6 +624,10 @@
   </si>
   <si>
     <t>true = 執行成功; fasle = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱角色資料轉入</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1334,6 +1334,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,24 +1391,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,12 +1400,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,31 +1410,172 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1442,9 +1604,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,165 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4180,7 +4180,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -4228,24 +4228,24 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4565,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4581,15 +4581,15 @@
       <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4606,250 +4606,243 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="A6" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="81" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A16" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4866,6 +4859,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4981,7 +4981,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="124" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="50"/>
@@ -5002,7 +5002,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5015,7 +5015,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5030,152 +5030,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="A15" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5184,70 +5184,70 @@
       <c r="B16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="A20" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5256,96 +5256,96 @@
       <c r="B21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5360,14 +5360,14 @@
       <c r="D28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5376,180 +5376,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="A32" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="146" t="s">
+      <c r="C37" s="119"/>
+      <c r="D37" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5572,14 +5572,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5588,27 +5588,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5625,16 +5625,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5656,7 +5656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5687,7 +5687,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="124" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="39"/>
@@ -5714,7 +5714,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5732,7 +5732,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5868,18 +5868,18 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="A11" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -5918,25 +5918,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5944,25 +5944,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5970,24 +5970,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="69"/>
     </row>
@@ -5996,25 +5996,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -6022,27 +6022,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6050,22 +6050,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -6074,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6083,10 +6083,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6094,7 +6094,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6103,7 +6103,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6120,18 +6120,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="A22" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6170,25 +6170,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6196,25 +6196,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6222,7 +6222,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6231,10 +6231,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6251,7 +6251,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="69"/>
     </row>
@@ -6268,18 +6268,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
+      <c r="A29" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
@@ -6318,25 +6318,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6344,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6353,10 +6353,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6373,7 +6373,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="69"/>
     </row>

--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -167,7 +167,438 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0402_職稱角色資料轉入 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0402_Title</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0402_Title</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理模組</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大處理人數 -  1人
+concurrent數 1人 - 2秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不定
+每年預計10筆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供系統權限使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD維護職稱角色時呼叫，APF中對應的職稱角色同步進行維護處理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CMD維護職稱角色時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework底層功能
+1.提供職稱角色維護API - WebAPI
+2.CMD模組設定權限職稱主檔維護時呼叫處理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0402_Title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫WebAPI時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 職稱角色新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5 職稱角色維護</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6 職稱角色刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自定角色
+APF0402_Title 此WebAPI呼叫時固定為2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱 = suda_work.suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行結果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗訊息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 執行成功; fasle = 執行失敗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱角色資料轉入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -186,449 +617,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0402_職稱角色資料轉入 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0402_Title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0402_Title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統管理模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最大處理人數 -  1人
-concurrent數 1人 - 2秒以內</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不定
-每年預計10筆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供系統權限使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMD維護職稱角色時呼叫，APF中對應的職稱角色同步進行維護處理</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CMD維護職稱角色時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.提供職稱角色維護API - WebAPI
-2.CMD模組設定權限職稱主檔維護時呼叫處理</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0402_Title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫WebAPI時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 職稱角色新增</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5 職稱角色維護</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6 職稱角色刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色說明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色
-APF0402_Title 此WebAPI呼叫時固定為2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號 = suda_work.suda_work_id(S0001~S0009)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱 = suda_work.suda_work_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統流水號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>執行結果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>失敗訊息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>true = 執行成功; fasle = 執行失敗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>職稱角色資料轉入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1334,13 +1323,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,27 +1395,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1379,41 +1404,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1424,10 +1551,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,36 +1590,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,138 +1604,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3319,7 +3308,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12363450" cy="523875"/>
+          <a:ext cx="13001625" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4180,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4188,64 +4177,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4429,10 +4418,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4565,7 +4554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
@@ -4579,17 +4568,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4606,243 +4595,250 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A16" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
+      <c r="A17" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="94"/>
+      <c r="A40" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4859,13 +4855,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4981,8 +4970,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
-        <v>55</v>
+      <c r="K1" s="130" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5002,7 +4991,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5015,7 +5004,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5030,344 +5019,344 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="A5" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="A27" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="D28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E28" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5376,180 +5365,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="163"/>
+      <c r="D37" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5572,14 +5561,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5588,27 +5577,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5625,16 +5614,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5656,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5665,12 +5654,12 @@
     <col min="1" max="1" width="4.25" style="41" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="41" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="41" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="41" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -5687,8 +5676,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
-        <v>55</v>
+      <c r="K1" s="130" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5714,7 +5703,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5732,7 +5721,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5777,7 +5766,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="168"/>
       <c r="C6" s="168"/>
@@ -5806,7 +5795,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5818,10 +5807,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5855,7 +5844,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5868,31 +5857,31 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="A11" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5904,10 +5893,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5918,25 +5907,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5944,25 +5933,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>112</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5970,24 +5959,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J15" s="69"/>
     </row>
@@ -5996,25 +5985,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -6022,27 +6011,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6050,22 +6039,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -6074,7 +6063,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6083,10 +6072,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6094,7 +6083,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6103,7 +6092,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6120,18 +6109,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
+      <c r="A22" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6141,10 +6130,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6156,10 +6145,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6170,25 +6159,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="69" t="s">
         <v>112</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6196,25 +6185,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6222,7 +6211,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6231,10 +6220,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6242,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6251,7 +6240,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J27" s="69"/>
     </row>
@@ -6268,18 +6257,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
+      <c r="A29" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
@@ -6289,10 +6278,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>22</v>
@@ -6304,10 +6293,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>0</v>
@@ -6318,25 +6307,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6344,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6353,10 +6342,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6364,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6373,7 +6362,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J33" s="69"/>
     </row>

--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -203,10 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -363,7 +359,7 @@
   </si>
   <si>
     <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
@@ -424,12 +420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Framework底層功能
-1.提供職稱角色維護API - WebAPI
-2.CMD模組設定權限職稱主檔維護時呼叫處理</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0402_Title</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -515,19 +505,19 @@
   </si>
   <si>
     <t>角色代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>角色來源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>角色說明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是否啟用</t>
@@ -624,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -777,11 +767,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1125,7 +1110,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,7 +1248,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,6 +1308,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,24 +1365,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,47 +1374,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1431,9 +1566,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,165 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2659,13 +2632,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2711,13 +2684,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4169,7 +4142,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4177,64 +4150,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4418,10 +4391,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4552,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4568,17 +4541,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4595,258 +4568,217 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
+      <c r="A6" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="81" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="80" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -4855,6 +4787,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4875,13 +4814,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -4900,13 +4839,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4970,8 +4909,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="130" t="s">
-        <v>52</v>
+      <c r="K1" s="120" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -4991,7 +4930,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5004,7 +4943,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5019,344 +4958,344 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="A15" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="A20" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
+      <c r="A27" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="E28" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5365,180 +5304,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="A32" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="146" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5561,14 +5500,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5577,27 +5516,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5614,16 +5553,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5645,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5676,8 +5615,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="130" t="s">
-        <v>52</v>
+      <c r="K1" s="120" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5703,7 +5642,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5721,7 +5660,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5765,18 +5704,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5795,7 +5734,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5807,10 +5746,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5843,45 +5782,45 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="167" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
+      <c r="A10" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="A11" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5893,10 +5832,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5907,25 +5846,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5933,25 +5872,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5959,24 +5898,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="69"/>
     </row>
@@ -5985,25 +5924,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="69" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -6011,27 +5950,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6039,22 +5978,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="69"/>
     </row>
@@ -6063,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6072,10 +6011,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6083,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6092,7 +6031,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="69"/>
     </row>
@@ -6109,18 +6048,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="A22" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6130,10 +6069,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>22</v>
@@ -6145,10 +6084,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6159,25 +6098,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6185,25 +6124,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>108</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6211,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6220,10 +6159,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6231,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6240,7 +6179,7 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="69"/>
     </row>
@@ -6257,18 +6196,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
+      <c r="A29" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
@@ -6278,10 +6217,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>22</v>
@@ -6293,10 +6232,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>0</v>
@@ -6307,25 +6246,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="69" t="s">
         <v>108</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6333,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6342,10 +6281,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6353,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6362,7 +6301,7 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="69"/>
     </row>

--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -1308,13 +1308,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,27 +1368,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1353,29 +1377,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1386,10 +1524,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,36 +1563,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,138 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2633,13 +2633,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2684,13 +2684,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4525,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4543,15 +4543,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="73" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4568,216 +4568,221 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="95" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="95" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="92" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="94"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A46:L46"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -4789,11 +4794,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4820,8 +4820,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4839,13 +4839,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4909,7 +4909,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -4930,7 +4930,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -4943,7 +4943,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -4958,152 +4958,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5112,70 +5112,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5184,96 +5184,96 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="100"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="100"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5288,14 +5288,14 @@
       <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5304,180 +5304,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="100"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="159"/>
+      <c r="D37" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="98"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5500,14 +5500,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5516,27 +5516,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5553,16 +5553,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5615,7 +5615,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="126" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5642,7 +5642,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5660,7 +5660,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5796,18 +5796,18 @@
       <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6048,18 +6048,18 @@
       <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
@@ -6196,18 +6196,18 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">

--- a/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
+++ b/APF/RA006/RA006_APF0402_職稱角色資料轉入.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="43" r:id="rId4"/>
-    <sheet name="畫面_APF0402_Title" sheetId="7" r:id="rId5"/>
+    <sheet name="Function_APF0402_Title" sheetId="44" r:id="rId5"/>
     <sheet name="欄位_APF0402_Title" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Function_APF0402_Title!$A$1:$J$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0402_Title!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0402_Title!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Function_APF0402_Title!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0402_Title!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0402_Title!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0402_Title!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Function_APF0402_Title!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -55,46 +55,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項目名稱</t>
@@ -128,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -203,34 +159,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Global 參數</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -304,18 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -324,16 +240,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -359,7 +265,7 @@
   </si>
   <si>
     <t>Rid</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
@@ -421,30 +327,6 @@
   </si>
   <si>
     <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0402_Title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫WebAPI時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0402_Title</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -505,19 +387,19 @@
   </si>
   <si>
     <t>角色代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>角色來源</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>角色說明</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>是否啟用</t>
@@ -609,12 +491,102 @@
   <si>
     <t>輸入/輸出/必填</t>
   </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職稱角色WebApi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JobRoleCreate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dt_apf_menu_node
+dt_apf_controller</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.職稱角色新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JobRoleUpdate()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.職稱角色修改</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JobRoleDelete()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.職稱角色刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0402_Title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>內容說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -764,13 +736,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1110,7 +1075,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,65 +1207,59 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,6 +1267,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,24 +1315,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,62 +1327,101 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1418,169 +1437,28 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2633,13 +2511,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2750,7 +2628,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1627" name="群組 1"/>
+        <xdr:cNvPr id="2" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2765,7 +2643,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1049" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2838,7 +2716,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2915,7 +2793,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2992,7 +2870,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3069,7 +2947,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3143,7 +3021,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1054" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3219,7 +3097,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1643" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4141,73 +4019,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>58</v>
+      <c r="A5" s="70" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="72"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="34" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4369,13 +4247,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -4391,12 +4269,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="70">
+        <v>23</v>
+      </c>
+      <c r="D6" s="66">
         <v>41564</v>
       </c>
       <c r="E6" s="12"/>
@@ -4527,7 +4405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
@@ -4541,17 +4419,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4568,216 +4446,211 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="A5" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
+      <c r="A6" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4794,6 +4667,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4875,17 +4753,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="51" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="50" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="50" customWidth="1"/>
@@ -4898,19 +4775,19 @@
     <col min="12" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="51" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
-        <v>51</v>
+    <row r="1" spans="1:17" s="67" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="118" t="s">
+        <v>94</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -4919,652 +4796,385 @@
       <c r="P1" s="50"/>
       <c r="Q1" s="50"/>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
-    </row>
-    <row r="3" spans="1:17" s="51" customFormat="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
-    </row>
-    <row r="4" spans="1:17" s="51" customFormat="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+    <row r="2" spans="1:17" s="67" customFormat="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="119"/>
+    </row>
+    <row r="3" spans="1:17" s="67" customFormat="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="119"/>
+    </row>
+    <row r="4" spans="1:17" s="67" customFormat="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
+      <c r="A6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" s="51" customFormat="1" ht="49.5">
+      <c r="A7" s="56">
+        <v>1</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="1:17" s="51" customFormat="1" ht="49.5">
+      <c r="A8" s="56">
+        <v>1</v>
+      </c>
       <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-    </row>
-    <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-    </row>
-    <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
-    </row>
-    <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-    </row>
-    <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="55">
+      <c r="C8" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+    </row>
+    <row r="9" spans="1:17" s="51" customFormat="1" ht="49.5">
+      <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
-    </row>
-    <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="55">
+      <c r="B9" s="134"/>
+      <c r="C9" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
+    </row>
+    <row r="10" spans="1:17" s="51" customFormat="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="98"/>
+    </row>
+    <row r="11" spans="1:17" s="51" customFormat="1">
+      <c r="A11" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+    </row>
+    <row r="12" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+    </row>
+    <row r="13" spans="1:17" s="52" customFormat="1">
+      <c r="A13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:17" s="51" customFormat="1">
+      <c r="A15" s="109"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+    </row>
+    <row r="16" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
+    </row>
+    <row r="17" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
+    </row>
+    <row r="19" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
+    </row>
+    <row r="20" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+    </row>
+    <row r="21" spans="1:10" s="51" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="59">
+        <v>1</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="59">
         <v>2</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-    </row>
-    <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="55">
-        <v>3</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
-    </row>
-    <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
-    </row>
-    <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
-    </row>
-    <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-    </row>
-    <row r="29" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-    </row>
-    <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
-    </row>
-    <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
-    </row>
-    <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
-    </row>
-    <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
-    </row>
-    <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
-    </row>
-    <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="159"/>
-      <c r="D37" s="142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
-    </row>
-    <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
-    </row>
-    <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="63">
-        <v>1</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="63">
-        <v>2</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="B25" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C44:J44"/>
+  <mergeCells count="23">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -5615,8 +5225,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
-        <v>51</v>
+      <c r="K1" s="118" t="s">
+        <v>33</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5642,7 +5252,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5660,7 +5270,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="119"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5704,18 +5314,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="A6" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5728,28 +5338,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5782,60 +5392,60 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
-    </row>
-    <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="A10" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1">
+      <c r="A11" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5846,25 +5456,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>111</v>
+        <v>40</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33">
@@ -5872,25 +5482,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5898,51 +5508,51 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H15" s="43">
         <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="49.5">
       <c r="A16" s="48">
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49.5">
@@ -5950,27 +5560,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H17" s="43">
         <v>2</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>107</v>
+        <v>45</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5978,31 +5588,31 @@
         <v>6</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="48">
         <v>7</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
@@ -6011,10 +5621,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="69" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="J19" s="65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6022,7 +5632,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6031,9 +5641,9 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="48"/>
@@ -6045,49 +5655,49 @@
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="69"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="A22" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>0</v>
@@ -6098,25 +5708,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="69" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="49.5">
@@ -6124,25 +5734,25 @@
         <v>2</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6150,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
@@ -6159,10 +5769,10 @@
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6170,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
@@ -6179,9 +5789,9 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="48"/>
@@ -6196,46 +5806,46 @@
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
+      <c r="A29" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>0</v>
@@ -6246,25 +5856,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6272,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
@@ -6281,10 +5891,10 @@
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6292,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
@@ -6301,9 +5911,9 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="48"/>
@@ -6315,7 +5925,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="69"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="48"/>
@@ -6327,7 +5937,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
